--- a/biology/Histoire de la zoologie et de la botanique/Centre_de_biodiversité_Naturalis/Centre_de_biodiversité_Naturalis.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Centre_de_biodiversité_Naturalis/Centre_de_biodiversité_Naturalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_de_biodiversit%C3%A9_Naturalis</t>
+          <t>Centre_de_biodiversité_Naturalis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre de biodiversité Naturalis (nom officiel en anglais : Naturalis Biodiversity Center), couramment abrégé en Naturalis, est un musée national d'histoire naturelle, de la biodiversité et un institut de recherche situé à Leyde, aux Pays-Bas.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_de_biodiversit%C3%A9_Naturalis</t>
+          <t>Centre_de_biodiversité_Naturalis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Naturalis est né en 1984 de la réunion du musée national d’histoire naturelle de Leyde (Rijksmuseum van Natuurlijke Historie, RMNH) et du musée national de géologie et de minéralogie (en) (Rijksmuseum van Geologie en Mineralogie, RGM).
 Depuis 1998, le musée Naturalis et ses dix millions de spécimens sont hébergées dans une tour de soixante mètres de haut.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_de_biodiversit%C3%A9_Naturalis</t>
+          <t>Centre_de_biodiversité_Naturalis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Bâtiments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux bâtiments principaux du Naturalis sont le bâtiment Naturalis à proprement parler, datant de 1998, et le Pesthuis. Datant du XVIIe siècle, le Pesthuis constituait autrefois l'un des musées ayant participé à la fusion de 1998.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_de_biodiversit%C3%A9_Naturalis</t>
+          <t>Centre_de_biodiversité_Naturalis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste non exhaustive : 
 5 250 000 insectes ;
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centre_de_biodiversit%C3%A9_Naturalis</t>
+          <t>Centre_de_biodiversité_Naturalis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,9 +636,11 @@
           <t>Le tyrannosaure</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans une salle spécialement conçue à cet effet, le musée Naturalis expose un squelette authentique de Tyrannosaurus rex, l'un des deux seuls spécimens authentiques à être conservés en Europe, l'autre étant le spécimen Tristan, exposé à Berlin en Allemagne[1]. Le tyrannosaure de Naturalis est estimé être une femelle. Surnommée Trix, le Musée l'a extraite et obtenue en 2013 à la suite d'un accord avec l'état américain du Montana. Trix est l'un des spécimens de Tyrannosaurus les plus complets[2] et mieux conservés[3] au monde.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans une salle spécialement conçue à cet effet, le musée Naturalis expose un squelette authentique de Tyrannosaurus rex, l'un des deux seuls spécimens authentiques à être conservés en Europe, l'autre étant le spécimen Tristan, exposé à Berlin en Allemagne. Le tyrannosaure de Naturalis est estimé être une femelle. Surnommée Trix, le Musée l'a extraite et obtenue en 2013 à la suite d'un accord avec l'état américain du Montana. Trix est l'un des spécimens de Tyrannosaurus les plus complets et mieux conservés au monde.
 </t>
         </is>
       </c>
